--- a/biology/Histoire de la zoologie et de la botanique/Allan_Riverstone_McCulloch/Allan_Riverstone_McCulloch.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Allan_Riverstone_McCulloch/Allan_Riverstone_McCulloch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allan Riverstone McCulloch est un zoologiste australien, né le 20 juin 1885 à Sydney et mort le 1er septembre 1925 à Honolulu.
 Il devient à 13 ans assistant bénévole au Muséum australien. Trois ans plus tard, il est embauché comme assistant mécanicien et cinq ans plus tard comme conservateur des poissons, fonction qu’il conserve jusqu’à sa mort.
@@ -515,7 +527,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Allan Riverstone McCulloch » (voir la liste des auteurs).</t>
         </is>
